--- a/20170712-mnrecovery/builds/development/data/_raw/print_graphics.xlsx
+++ b/20170712-mnrecovery/builds/development/data/_raw/print_graphics.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6540" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="counties" sheetId="1" r:id="rId1"/>
     <sheet name="region" sheetId="2" r:id="rId2"/>
+    <sheet name="jobs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="113">
   <si>
     <t>county</t>
   </si>
@@ -356,6 +357,9 @@
   </si>
   <si>
     <t>Southern</t>
+  </si>
+  <si>
+    <t>Percent change in total jobs since 2000</t>
   </si>
 </sst>
 </file>
@@ -439,7 +443,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -451,6 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -786,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2857,7 +2862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2894,7 +2899,7 @@
         <v>56302</v>
       </c>
       <c r="E2">
-        <f>((D2-C2)/C2) * 100</f>
+        <f t="shared" ref="E2:E9" si="0">((D2-C2)/C2) * 100</f>
         <v>13.181224243642578</v>
       </c>
     </row>
@@ -2912,7 +2917,7 @@
         <v>50543</v>
       </c>
       <c r="E3">
-        <f>((D3-C3)/C3) * 100</f>
+        <f t="shared" si="0"/>
         <v>8.3172602974583185</v>
       </c>
     </row>
@@ -2930,7 +2935,7 @@
         <v>50506</v>
       </c>
       <c r="E4">
-        <f>((D4-C4)/C4) * 100</f>
+        <f t="shared" si="0"/>
         <v>3.8747891900785656</v>
       </c>
     </row>
@@ -2948,7 +2953,7 @@
         <v>60734</v>
       </c>
       <c r="E5">
-        <f>((D5-C5)/C5) * 100</f>
+        <f t="shared" si="0"/>
         <v>3.4280751349602361</v>
       </c>
     </row>
@@ -2966,7 +2971,7 @@
         <v>53593</v>
       </c>
       <c r="E6">
-        <f>((D6-C6)/C6) * 100</f>
+        <f t="shared" si="0"/>
         <v>3.3496605985806851</v>
       </c>
     </row>
@@ -2984,7 +2989,7 @@
         <v>63459</v>
       </c>
       <c r="E7">
-        <f>((D7-C7)/C7) * 100</f>
+        <f t="shared" si="0"/>
         <v>3.260922626311936</v>
       </c>
     </row>
@@ -3002,7 +3007,7 @@
         <v>71682</v>
       </c>
       <c r="E8">
-        <f>((D8-C8)/C8) * 100</f>
+        <f t="shared" si="0"/>
         <v>2.4379787355664799</v>
       </c>
     </row>
@@ -3020,8 +3025,559 @@
         <v>58434</v>
       </c>
       <c r="E9">
-        <f>((D9-C9)/C9) * 100</f>
+        <f t="shared" si="0"/>
         <v>0.88568912829543689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1">
+        <v>2000</v>
+      </c>
+      <c r="D1">
+        <v>2001</v>
+      </c>
+      <c r="E1">
+        <v>2002</v>
+      </c>
+      <c r="F1">
+        <v>2003</v>
+      </c>
+      <c r="G1">
+        <v>2004</v>
+      </c>
+      <c r="H1">
+        <v>2005</v>
+      </c>
+      <c r="I1">
+        <v>2006</v>
+      </c>
+      <c r="J1">
+        <v>2007</v>
+      </c>
+      <c r="K1">
+        <v>2008</v>
+      </c>
+      <c r="L1">
+        <v>2009</v>
+      </c>
+      <c r="M1">
+        <v>2010</v>
+      </c>
+      <c r="N1">
+        <v>2011</v>
+      </c>
+      <c r="O1">
+        <v>2012</v>
+      </c>
+      <c r="P1">
+        <v>2013</v>
+      </c>
+      <c r="Q1">
+        <v>2014</v>
+      </c>
+      <c r="R1">
+        <v>2015</v>
+      </c>
+      <c r="S1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H2" s="11">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.112</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.123</v>
+      </c>
+      <c r="K2" s="11">
+        <v>0.114</v>
+      </c>
+      <c r="L2" s="11">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="M2" s="11">
+        <v>6.3E-2</v>
+      </c>
+      <c r="N2" s="11">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="O2" s="11">
+        <v>9.4E-2</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0.115</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0.153</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="11">
+        <v>-0.01</v>
+      </c>
+      <c r="F3" s="11">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>-0.01</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1.6E-2</v>
+      </c>
+      <c r="L3" s="11">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="M3" s="11">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="N3" s="11">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="O3" s="11">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="P3" s="11">
+        <v>2E-3</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="R3" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="S3" s="11">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2.3E-2</v>
+      </c>
+      <c r="G4" s="11">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I4" s="11">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="N4" s="11">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="O4" s="11">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="P4" s="11">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="R4" s="11">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="S4" s="11">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>-2E-3</v>
+      </c>
+      <c r="G5" s="11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="J5" s="11">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K5" s="11">
+        <v>3.1E-2</v>
+      </c>
+      <c r="L5" s="11">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="M5" s="11">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="N5" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O5" s="11">
+        <v>1.9E-2</v>
+      </c>
+      <c r="P5" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="R5" s="11">
+        <v>3.9E-2</v>
+      </c>
+      <c r="S5" s="11">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="11">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="11">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I6" s="11">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J6" s="11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="L6" s="11">
+        <v>-2E-3</v>
+      </c>
+      <c r="M6" s="11">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="N6" s="11">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="O6" s="11">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="P6" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R6" s="11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="S6" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>-2E-3</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-2.1999999999999999E-2</v>
+      </c>
+      <c r="F7" s="11">
+        <v>-2.5000000000000001E-2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="I7" s="11">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K7" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L7" s="11">
+        <v>-3.6999999999999998E-2</v>
+      </c>
+      <c r="M7" s="11">
+        <v>-0.04</v>
+      </c>
+      <c r="N7" s="11">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="O7" s="11">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="P7" s="11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="R7" s="11">
+        <v>4.7E-2</v>
+      </c>
+      <c r="S7" s="11">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2E-3</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G8" s="11">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H8" s="11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I8" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="K8" s="11">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="L8" s="11">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M8" s="11">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N8" s="11">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="P8" s="11">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>0.108</v>
+      </c>
+      <c r="R8" s="11">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="S8" s="11">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="E9" s="11">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="F9" s="11">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="G9" s="11">
+        <v>-2E-3</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L9" s="11">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="M9" s="11">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="N9" s="11">
+        <v>-2E-3</v>
+      </c>
+      <c r="O9" s="11">
+        <v>1.4E-2</v>
+      </c>
+      <c r="P9" s="11">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="R9" s="11">
+        <v>6.3E-2</v>
+      </c>
+      <c r="S9" s="11">
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
